--- a/Modules/RTL-00_vs_BW16_Pins.xlsx
+++ b/Modules/RTL-00_vs_BW16_Pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AD_GIT\Ameba_Docs\Modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F614A9-04D9-4A81-B21A-80CFF2B745B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D813191D-0FDD-474C-A5D9-9EB7C74C6267}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2250" windowWidth="28500" windowHeight="17370" xr2:uid="{224D044C-C4DB-4BD4-ADCF-1CBC2E3DA871}"/>
+    <workbookView xWindow="14610" yWindow="2190" windowWidth="21540" windowHeight="16110" xr2:uid="{224D044C-C4DB-4BD4-ADCF-1CBC2E3DA871}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinout" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="127">
   <si>
     <t>-</t>
   </si>
@@ -570,6 +570,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,11 +587,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Акцент1" xfId="2" builtinId="29"/>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A6E4AB-F37D-42BB-8787-37077F9CD1AD}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,7 @@
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="16.140625" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" customWidth="1"/>
     <col min="23" max="23" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -928,32 +928,32 @@
       <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -1013,6 +1013,9 @@
       <c r="U2" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="V2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="W2" s="2" t="s">
         <v>96</v>
       </c>
@@ -1024,10 +1027,10 @@
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
@@ -1050,6 +1053,9 @@
       </c>
       <c r="R3" t="s">
         <v>52</v>
+      </c>
+      <c r="V3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1059,7 +1065,7 @@
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
@@ -1076,6 +1082,9 @@
       </c>
       <c r="U4" t="s">
         <v>101</v>
+      </c>
+      <c r="V4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1102,7 +1111,7 @@
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I6" t="s">
@@ -1116,6 +1125,9 @@
       </c>
       <c r="O6" t="s">
         <v>119</v>
+      </c>
+      <c r="V6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1125,10 +1137,10 @@
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
@@ -1149,6 +1161,9 @@
       <c r="O7" t="s">
         <v>54</v>
       </c>
+      <c r="V7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1157,10 +1172,10 @@
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
@@ -1183,6 +1198,9 @@
       </c>
       <c r="T8" t="s">
         <v>85</v>
+      </c>
+      <c r="V8" t="s">
+        <v>6</v>
       </c>
       <c r="W8" t="s">
         <v>95</v>
@@ -1195,10 +1213,10 @@
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
@@ -1230,6 +1248,9 @@
       </c>
       <c r="S9" t="s">
         <v>103</v>
+      </c>
+      <c r="V9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1239,33 +1260,33 @@
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1283,19 +1304,19 @@
       <c r="J11" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1304,7 +1325,7 @@
       <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
@@ -1316,19 +1337,19 @@
       <c r="H12" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1340,19 +1361,19 @@
       <c r="J13" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1373,19 +1394,19 @@
       <c r="J14" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1406,19 +1427,19 @@
       <c r="J15" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1430,19 +1451,19 @@
       <c r="J16" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1451,33 +1472,33 @@
       <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1486,10 +1507,10 @@
       <c r="B18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E18" t="s">
@@ -1518,6 +1539,9 @@
       </c>
       <c r="S18" t="s">
         <v>104</v>
+      </c>
+      <c r="V18" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -1542,6 +1566,9 @@
       <c r="O19" t="s">
         <v>55</v>
       </c>
+      <c r="V19" t="s">
+        <v>6</v>
+      </c>
       <c r="W19" t="s">
         <v>97</v>
       </c>
@@ -1553,10 +1580,10 @@
       <c r="B20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F20" t="s">
@@ -1576,6 +1603,9 @@
       </c>
       <c r="Q20" t="s">
         <v>110</v>
+      </c>
+      <c r="V20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -1585,10 +1615,10 @@
       <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F21" t="s">
@@ -1608,6 +1638,9 @@
       </c>
       <c r="R21" t="s">
         <v>52</v>
+      </c>
+      <c r="V21" t="s">
+        <v>6</v>
       </c>
       <c r="W21" t="s">
         <v>98</v>
@@ -1620,10 +1653,10 @@
       <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="9" t="s">
         <v>27</v>
       </c>
       <c r="G22" t="s">
@@ -1646,6 +1679,9 @@
       </c>
       <c r="R22" t="s">
         <v>47</v>
+      </c>
+      <c r="V22" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -1667,6 +1703,9 @@
       <c r="U23" t="s">
         <v>100</v>
       </c>
+      <c r="V23" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1690,27 +1729,30 @@
       <c r="U24" t="s">
         <v>99</v>
       </c>
+      <c r="V24" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="8" t="s">
         <v>126</v>
       </c>
     </row>

--- a/Modules/RTL-00_vs_BW16_Pins.xlsx
+++ b/Modules/RTL-00_vs_BW16_Pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AD_GIT\Ameba_Docs\Modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D813191D-0FDD-474C-A5D9-9EB7C74C6267}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5968AD73-B96A-4F68-92C3-AF4F961FB52C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14610" yWindow="2190" windowWidth="21540" windowHeight="16110" xr2:uid="{224D044C-C4DB-4BD4-ADCF-1CBC2E3DA871}"/>
+    <workbookView xWindow="-450" yWindow="2145" windowWidth="19740" windowHeight="15660" xr2:uid="{224D044C-C4DB-4BD4-ADCF-1CBC2E3DA871}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinout" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="125">
   <si>
     <t>-</t>
   </si>
@@ -405,12 +405,6 @@
   </si>
   <si>
     <t>Примечание: Можно использовать периферию только ОДНОЙ группы и нельзя смешивать пины разных групп различного назначения для использования в одном интерфейсе.</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
   </si>
 </sst>
 </file>
@@ -458,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,18 +493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +538,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,8 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -908,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A6E4AB-F37D-42BB-8787-37077F9CD1AD}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,32 +908,32 @@
       <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -1030,7 +1010,7 @@
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
@@ -1111,7 +1091,7 @@
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I6" t="s">
@@ -1137,7 +1117,7 @@
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1172,7 +1152,7 @@
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1213,7 +1193,7 @@
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1260,33 +1240,33 @@
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1304,19 +1284,19 @@
       <c r="J11" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1337,19 +1317,19 @@
       <c r="H12" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1361,19 +1341,19 @@
       <c r="J13" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1394,19 +1374,19 @@
       <c r="J14" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1427,19 +1407,19 @@
       <c r="J15" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1451,19 +1431,19 @@
       <c r="J16" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1472,33 +1452,33 @@
       <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1507,7 +1487,7 @@
       <c r="B18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1583,7 +1563,7 @@
       <c r="C20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F20" t="s">
@@ -1618,7 +1598,7 @@
       <c r="C21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F21" t="s">
@@ -1656,7 +1636,7 @@
       <c r="C22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G22" t="s">
@@ -1746,17 +1726,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E32" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>124</v>
       </c>
